--- a/results/discussion/Comparisons_metrics_A200.xlsx
+++ b/results/discussion/Comparisons_metrics_A200.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,10 @@
     <sheet name="Original vs Equatorial" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Original vs Polar" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Original vs Equatorial'!$A$1:$Q$20</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Original vs Polar'!$A$1:$Q$18</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="50">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -137,6 +141,9 @@
     <t xml:space="preserve">Support_Comp</t>
   </si>
   <si>
+    <t xml:space="preserve">Sit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acc_Dif</t>
   </si>
   <si>
@@ -147,6 +154,30 @@
   </si>
   <si>
     <t xml:space="preserve">F1_Dif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support_Dif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manteve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inferior</t>
   </si>
 </sst>
 </file>
@@ -255,13 +286,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -289,7 +324,43 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFADD8E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -364,6 +435,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -375,7 +454,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -882,7 +961,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1366,7 +1445,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1798,13 +1877,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1840,17 +1919,23 @@
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,36 +1957,43 @@
       <c r="F2" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="str">
+      <c r="L2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="6" t="str">
         <f aca="false">IF(G2-B2&gt;0,"",G2-B2)</f>
         <v/>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="6" t="n">
         <f aca="false">IF(H2-C2&gt;0,"",H2-C2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="5" t="str">
+      <c r="O2" s="6" t="str">
         <f aca="false">IF(I2-D2&gt;0,"",I2-D2)</f>
         <v/>
       </c>
-      <c r="P2" s="5" t="str">
+      <c r="P2" s="6" t="str">
         <f aca="false">IF(J2-E2&gt;0,"",J2-E2)</f>
         <v/>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">K2-F2</f>
+        <v>-29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,36 +2015,43 @@
       <c r="F3" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.545</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>0.545</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <v>0.706</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="L3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="6" t="n">
         <f aca="false">IF(G3-B3&gt;0,"",G3-B3)</f>
         <v>-0.432</v>
       </c>
-      <c r="N3" s="5" t="str">
+      <c r="N3" s="6" t="str">
         <f aca="false">IF(H3-C3&gt;0,"",H3-C3)</f>
         <v/>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="6" t="n">
         <f aca="false">IF(I3-D3&gt;0,"",I3-D3)</f>
         <v>-0.432</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="6" t="n">
         <f aca="false">IF(J3-E3&gt;0,"",J3-E3)</f>
         <v>-0.277</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">K3-F3</f>
+        <v>-287</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,35 +2073,42 @@
       <c r="F4" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.995</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.986</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.995</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <v>218</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="L4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6" t="n">
         <f aca="false">IF(G4-B4&gt;0,"",G4-B4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="6" t="n">
         <f aca="false">IF(H4-C4&gt;0,"",H4-C4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="6" t="n">
         <f aca="false">IF(I4-D4&gt;0,"",I4-D4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="6" t="n">
         <f aca="false">IF(J4-E4&gt;0,"",J4-E4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">K4-F4</f>
         <v>0</v>
       </c>
     </row>
@@ -2025,36 +2131,43 @@
       <c r="F5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>0.958</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>0.958</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="3" t="n">
         <v>0.939</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="M5" s="5" t="str">
+      <c r="L5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="6" t="str">
         <f aca="false">IF(G5-B5&gt;0,"",G5-B5)</f>
         <v/>
       </c>
-      <c r="N5" s="5" t="str">
+      <c r="N5" s="6" t="str">
         <f aca="false">IF(H5-C5&gt;0,"",H5-C5)</f>
         <v/>
       </c>
-      <c r="O5" s="5" t="str">
+      <c r="O5" s="6" t="str">
         <f aca="false">IF(I5-D5&gt;0,"",I5-D5)</f>
         <v/>
       </c>
-      <c r="P5" s="5" t="str">
+      <c r="P5" s="6" t="str">
         <f aca="false">IF(J5-E5&gt;0,"",J5-E5)</f>
         <v/>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">K5-F5</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,35 +2189,42 @@
       <c r="F6" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>0.955</v>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="n">
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>0.955</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="4" t="n">
         <v>0.977</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="L6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="6" t="n">
         <f aca="false">IF(G6-B6&gt;0,"",G6-B6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="6" t="n">
         <f aca="false">IF(H6-C6&gt;0,"",H6-C6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="6" t="n">
         <f aca="false">IF(I6-D6&gt;0,"",I6-D6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="6" t="n">
         <f aca="false">IF(J6-E6&gt;0,"",J6-E6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">K6-F6</f>
         <v>0</v>
       </c>
     </row>
@@ -2127,36 +2247,43 @@
       <c r="F7" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="G7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="L7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6" t="n">
         <f aca="false">IF(G7-B7&gt;0,"",G7-B7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="5" t="str">
+      <c r="N7" s="6" t="str">
         <f aca="false">IF(H7-C7&gt;0,"",H7-C7)</f>
         <v/>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="6" t="n">
         <f aca="false">IF(I7-D7&gt;0,"",I7-D7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="5" t="str">
+      <c r="P7" s="6" t="str">
         <f aca="false">IF(J7-E7&gt;0,"",J7-E7)</f>
         <v/>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">K7-F7</f>
+        <v>-179</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,36 +2305,43 @@
       <c r="F8" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
         <v>0.818</v>
       </c>
-      <c r="I8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4" t="n">
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="M8" s="5" t="str">
+      <c r="L8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="6" t="str">
         <f aca="false">IF(G8-B8&gt;0,"",G8-B8)</f>
         <v/>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N8" s="6" t="n">
         <f aca="false">IF(H8-C8&gt;0,"",H8-C8)</f>
         <v>-0.17</v>
       </c>
-      <c r="O8" s="5" t="str">
+      <c r="O8" s="6" t="str">
         <f aca="false">IF(I8-D8&gt;0,"",I8-D8)</f>
         <v/>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="6" t="n">
         <f aca="false">IF(J8-E8&gt;0,"",J8-E8)</f>
         <v>-0.083</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">K8-F8</f>
+        <v>-331</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,36 +2363,43 @@
       <c r="F9" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="n">
+      <c r="G9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="n">
         <v>0.971</v>
       </c>
-      <c r="I9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="n">
+      <c r="I9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>0.985</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="L9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="6" t="n">
         <f aca="false">IF(G9-B9&gt;0,"",G9-B9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="6" t="n">
         <f aca="false">IF(H9-C9&gt;0,"",H9-C9)</f>
         <v>-0.005</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="6" t="n">
         <f aca="false">IF(I9-D9&gt;0,"",I9-D9)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="6" t="n">
         <f aca="false">IF(J9-E9&gt;0,"",J9-E9)</f>
         <v>-0.003</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">K9-F9</f>
+        <v>-16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,36 +2421,43 @@
       <c r="F10" s="0" t="n">
         <v>786</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="n">
+      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
         <v>0.667</v>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="n">
+      <c r="I10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="L10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="6" t="n">
         <f aca="false">IF(G10-B10&gt;0,"",G10-B10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="6" t="n">
         <f aca="false">IF(H10-C10&gt;0,"",H10-C10)</f>
         <v>-0.329</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="6" t="n">
         <f aca="false">IF(I10-D10&gt;0,"",I10-D10)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="6" t="n">
         <f aca="false">IF(J10-E10&gt;0,"",J10-E10)</f>
         <v>-0.198</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">K10-F10</f>
+        <v>-784</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,36 +2479,43 @@
       <c r="F11" s="0" t="n">
         <v>790</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>0.996</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.991</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <v>0.996</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="4" t="n">
         <v>0.993</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>767</v>
       </c>
-      <c r="M11" s="5" t="str">
+      <c r="L11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="6" t="str">
         <f aca="false">IF(G11-B11&gt;0,"",G11-B11)</f>
         <v/>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="6" t="n">
         <f aca="false">IF(H11-C11&gt;0,"",H11-C11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="5" t="str">
+      <c r="O11" s="6" t="str">
         <f aca="false">IF(I11-D11&gt;0,"",I11-D11)</f>
         <v/>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="6" t="n">
         <f aca="false">IF(J11-E11&gt;0,"",J11-E11)</f>
         <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">K11-F11</f>
+        <v>-23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,36 +2537,43 @@
       <c r="F12" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>0.944</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>0.99</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="5" t="n">
         <v>0.944</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="5" t="n">
         <v>0.966</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="L12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="6" t="n">
         <f aca="false">IF(G12-B12&gt;0,"",G12-B12)</f>
         <v>-0.021</v>
       </c>
-      <c r="N12" s="5" t="str">
+      <c r="N12" s="6" t="str">
         <f aca="false">IF(H12-C12&gt;0,"",H12-C12)</f>
         <v/>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="6" t="n">
         <f aca="false">IF(I12-D12&gt;0,"",I12-D12)</f>
         <v>-0.021</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="6" t="n">
         <f aca="false">IF(J12-E12&gt;0,"",J12-E12)</f>
         <v>-0.01</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">K12-F12</f>
+        <v>-63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,36 +2595,43 @@
       <c r="F13" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="n">
+      <c r="G13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="L13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="6" t="n">
         <f aca="false">IF(G13-B13&gt;0,"",G13-B13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="6" t="n">
         <f aca="false">IF(H13-C13&gt;0,"",H13-C13)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="O13" s="6" t="n">
         <f aca="false">IF(I13-D13&gt;0,"",I13-D13)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="6" t="n">
         <f aca="false">IF(J13-E13&gt;0,"",J13-E13)</f>
         <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">K13-F13</f>
+        <v>-125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,36 +2653,43 @@
       <c r="F14" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="n">
+      <c r="G14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="L14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="6" t="n">
         <f aca="false">IF(G14-B14&gt;0,"",G14-B14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="6" t="n">
         <f aca="false">IF(H14-C14&gt;0,"",H14-C14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="6" t="n">
         <f aca="false">IF(I14-D14&gt;0,"",I14-D14)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="6" t="n">
         <f aca="false">IF(J14-E14&gt;0,"",J14-E14)</f>
         <v>0</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">K14-F14</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,36 +2711,43 @@
       <c r="F15" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>0.981</v>
       </c>
-      <c r="H15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>0.981</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="L15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="6" t="n">
         <f aca="false">IF(G15-B15&gt;0,"",G15-B15)</f>
         <v>-0.00800000000000001</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="6" t="n">
         <f aca="false">IF(H15-C15&gt;0,"",H15-C15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="O15" s="6" t="n">
         <f aca="false">IF(I15-D15&gt;0,"",I15-D15)</f>
         <v>-0.00800000000000001</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="6" t="n">
         <f aca="false">IF(J15-E15&gt;0,"",J15-E15)</f>
         <v>-0.004</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">K15-F15</f>
+        <v>-74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,36 +2769,43 @@
       <c r="F16" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>0.974</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="5" t="n">
         <v>0.962</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="L16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="6" t="n">
         <f aca="false">IF(G16-B16&gt;0,"",G16-B16)</f>
         <v>-0.00800000000000001</v>
       </c>
-      <c r="N16" s="5" t="str">
+      <c r="N16" s="6" t="str">
         <f aca="false">IF(H16-C16&gt;0,"",H16-C16)</f>
         <v/>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="6" t="n">
         <f aca="false">IF(I16-D16&gt;0,"",I16-D16)</f>
         <v>-0.00800000000000001</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="6" t="n">
         <f aca="false">IF(J16-E16&gt;0,"",J16-E16)</f>
         <v>-0.002</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">K16-F16</f>
+        <v>-31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,36 +2827,43 @@
       <c r="F17" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>0.969</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="4" t="n">
         <v>0.979</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="5" t="n">
         <v>0.969</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="4" t="n">
         <v>0.974</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="L17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="6" t="n">
         <f aca="false">IF(G17-B17&gt;0,"",G17-B17)</f>
         <v>-0.001</v>
       </c>
-      <c r="N17" s="5" t="n">
+      <c r="N17" s="6" t="n">
         <f aca="false">IF(H17-C17&gt;0,"",H17-C17)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="O17" s="6" t="n">
         <f aca="false">IF(I17-D17&gt;0,"",I17-D17)</f>
         <v>-0.001</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="6" t="n">
         <f aca="false">IF(J17-E17&gt;0,"",J17-E17)</f>
         <v>0</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">K17-F17</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,36 +2885,43 @@
       <c r="F18" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="n">
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
         <v>0.984</v>
       </c>
-      <c r="I18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4" t="n">
+      <c r="I18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>0.992</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="M18" s="5" t="str">
+      <c r="L18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="6" t="str">
         <f aca="false">IF(G18-B18&gt;0,"",G18-B18)</f>
         <v/>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="6" t="n">
         <f aca="false">IF(H18-C18&gt;0,"",H18-C18)</f>
         <v>-0.00900000000000001</v>
       </c>
-      <c r="O18" s="5" t="str">
+      <c r="O18" s="6" t="str">
         <f aca="false">IF(I18-D18&gt;0,"",I18-D18)</f>
         <v/>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="6" t="n">
         <f aca="false">IF(J18-E18&gt;0,"",J18-E18)</f>
         <v>-0.001</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">K18-F18</f>
+        <v>-84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,35 +2943,42 @@
       <c r="F19" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3" t="n">
+      <c r="G19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="L19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="6" t="n">
         <f aca="false">IF(G19-B19&gt;0,"",G19-B19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="6" t="n">
         <f aca="false">IF(H19-C19&gt;0,"",H19-C19)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="6" t="n">
         <f aca="false">IF(I19-D19&gt;0,"",I19-D19)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6" t="n">
         <f aca="false">IF(J19-E19&gt;0,"",J19-E19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">K19-F19</f>
         <v>0</v>
       </c>
     </row>
@@ -2790,41 +3001,92 @@
       <c r="F20" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5" t="n">
         <v>0.984</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>0.984</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="5" t="n">
         <v>0.984</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="3" t="n">
         <v>0.984</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>248</v>
       </c>
-      <c r="M20" s="5" t="n">
+      <c r="L20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="6" t="n">
         <f aca="false">IF(G20-B20&gt;0,"",G20-B20)</f>
         <v>-0.001</v>
       </c>
-      <c r="N20" s="5" t="str">
+      <c r="N20" s="6" t="str">
         <f aca="false">IF(H20-C20&gt;0,"",H20-C20)</f>
         <v/>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="6" t="n">
         <f aca="false">IF(I20-D20&gt;0,"",I20-D20)</f>
         <v>-0.001</v>
       </c>
-      <c r="P20" s="5" t="str">
+      <c r="P20" s="6" t="str">
         <f aca="false">IF(J20-E20&gt;0,"",J20-E20)</f>
         <v/>
       </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">K20-F20</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="n">
+        <f aca="false">SUM(G24:I24)</f>
+        <v>19</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="0" t="n">
+        <f aca="false">G24/$F$24</f>
+        <v>0.210526315789474</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">H24/$F$24</f>
+        <v>0.631578947368421</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">I24/$F$24</f>
+        <v>0.157894736842105</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q20"/>
   <conditionalFormatting sqref="M2:P20">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>-5%</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2835,6 +3097,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2843,13 +3106,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2885,17 +3148,23 @@
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,36 +3186,43 @@
       <c r="F2" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>0.966</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>0.966</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="5" t="n">
         <v>0.983</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="L2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="6" t="n">
         <f aca="false">IF(G2-B2&gt;0,"",G2-B2)</f>
         <v>-0.005</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="6" t="n">
         <f aca="false">IF(H2-C2&gt;0,"",H2-C2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="6" t="n">
         <f aca="false">IF(I2-D2&gt;0,"",I2-D2)</f>
         <v>-0.005</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6" t="n">
         <f aca="false">IF(J2-E2&gt;0,"",J2-E2)</f>
         <v>-0.002</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">K2-F2</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,36 +3244,43 @@
       <c r="F3" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>0.993</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>0.993</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="3" t="n">
         <v>0.991</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>287</v>
       </c>
-      <c r="M3" s="5" t="str">
+      <c r="L3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6" t="str">
         <f aca="false">IF(G3-B3&gt;0,"",G3-B3)</f>
         <v/>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="6" t="n">
         <f aca="false">IF(H3-C3&gt;0,"",H3-C3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="5" t="str">
+      <c r="O3" s="6" t="str">
         <f aca="false">IF(I3-D3&gt;0,"",I3-D3)</f>
         <v/>
       </c>
-      <c r="P3" s="5" t="str">
+      <c r="P3" s="6" t="str">
         <f aca="false">IF(J3-E3&gt;0,"",J3-E3)</f>
         <v/>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">K3-F3</f>
+        <v>-11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,36 +3302,43 @@
       <c r="F4" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="L4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="6" t="n">
         <f aca="false">IF(G4-B4&gt;0,"",G4-B4)</f>
         <v>-0.2</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="6" t="n">
         <f aca="false">IF(H4-C4&gt;0,"",H4-C4)</f>
         <v>-0.163</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="6" t="n">
         <f aca="false">IF(I4-D4&gt;0,"",I4-D4)</f>
         <v>-0.2</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="6" t="n">
         <f aca="false">IF(J4-E4&gt;0,"",J4-E4)</f>
         <v>-0.181</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">K4-F4</f>
+        <v>-96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,36 +3360,43 @@
       <c r="F5" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="n">
+      <c r="G5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>0.984</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="n">
+      <c r="I5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>0.992</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>179</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="L5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="6" t="n">
         <f aca="false">IF(G5-B5&gt;0,"",G5-B5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N5" s="6" t="n">
         <f aca="false">IF(H5-C5&gt;0,"",H5-C5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="6" t="n">
         <f aca="false">IF(I5-D5&gt;0,"",I5-D5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="6" t="n">
         <f aca="false">IF(J5-E5&gt;0,"",J5-E5)</f>
         <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">K5-F5</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,36 +3418,43 @@
       <c r="F6" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>0.979</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>0.994</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <v>0.979</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="3" t="n">
         <v>0.986</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>331</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="L6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6" t="n">
         <f aca="false">IF(G6-B6&gt;0,"",G6-B6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="5" t="str">
+      <c r="N6" s="6" t="str">
         <f aca="false">IF(H6-C6&gt;0,"",H6-C6)</f>
         <v/>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="6" t="n">
         <f aca="false">IF(I6-D6&gt;0,"",I6-D6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="str">
+      <c r="P6" s="6" t="str">
         <f aca="false">IF(J6-E6&gt;0,"",J6-E6)</f>
         <v/>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">K6-F6</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,36 +3476,43 @@
       <c r="F7" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="G7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="L7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6" t="n">
         <f aca="false">IF(G7-B7&gt;0,"",G7-B7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="5" t="str">
+      <c r="N7" s="6" t="str">
         <f aca="false">IF(H7-C7&gt;0,"",H7-C7)</f>
         <v/>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="6" t="n">
         <f aca="false">IF(I7-D7&gt;0,"",I7-D7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="5" t="str">
+      <c r="P7" s="6" t="str">
         <f aca="false">IF(J7-E7&gt;0,"",J7-E7)</f>
         <v/>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">K7-F7</f>
+        <v>-67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,36 +3534,43 @@
       <c r="F8" s="0" t="n">
         <v>786</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="G8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <v>0.997</v>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="n">
+      <c r="I8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0.998</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>784</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="L8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="6" t="n">
         <f aca="false">IF(G8-B8&gt;0,"",G8-B8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="5" t="str">
+      <c r="N8" s="6" t="str">
         <f aca="false">IF(H8-C8&gt;0,"",H8-C8)</f>
         <v/>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="O8" s="6" t="n">
         <f aca="false">IF(I8-D8&gt;0,"",I8-D8)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="6" t="n">
         <f aca="false">IF(J8-E8&gt;0,"",J8-E8)</f>
         <v>0</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">K8-F8</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,36 +3592,43 @@
       <c r="F9" s="0" t="n">
         <v>790</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>0.957</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>0.957</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="5" t="n">
         <v>0.978</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="L9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="6" t="n">
         <f aca="false">IF(G9-B9&gt;0,"",G9-B9)</f>
         <v>-0.038</v>
       </c>
-      <c r="N9" s="5" t="str">
+      <c r="N9" s="6" t="str">
         <f aca="false">IF(H9-C9&gt;0,"",H9-C9)</f>
         <v/>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="6" t="n">
         <f aca="false">IF(I9-D9&gt;0,"",I9-D9)</f>
         <v>-0.038</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="6" t="n">
         <f aca="false">IF(J9-E9&gt;0,"",J9-E9)</f>
         <v>-0.015</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">K9-F9</f>
+        <v>-767</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,36 +3650,43 @@
       <c r="F10" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="n">
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
         <v>0.984</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="n">
+      <c r="I10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="n">
         <v>0.992</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="M10" s="5" t="str">
+      <c r="L10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="6" t="str">
         <f aca="false">IF(G10-B10&gt;0,"",G10-B10)</f>
         <v/>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="6" t="n">
         <f aca="false">IF(H10-C10&gt;0,"",H10-C10)</f>
         <v>-0.004</v>
       </c>
-      <c r="O10" s="5" t="str">
+      <c r="O10" s="6" t="str">
         <f aca="false">IF(I10-D10&gt;0,"",I10-D10)</f>
         <v/>
       </c>
-      <c r="P10" s="5" t="str">
+      <c r="P10" s="6" t="str">
         <f aca="false">IF(J10-E10&gt;0,"",J10-E10)</f>
         <v/>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">K10-F10</f>
+        <v>-108</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,36 +3708,43 @@
       <c r="F11" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="n">
+      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="L11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="6" t="n">
         <f aca="false">IF(G11-B11&gt;0,"",G11-B11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="6" t="n">
         <f aca="false">IF(H11-C11&gt;0,"",H11-C11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="6" t="n">
         <f aca="false">IF(I11-D11&gt;0,"",I11-D11)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="6" t="n">
         <f aca="false">IF(J11-E11&gt;0,"",J11-E11)</f>
         <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">K11-F11</f>
+        <v>-14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,35 +3766,42 @@
       <c r="F12" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="n">
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="L12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="6" t="n">
         <f aca="false">IF(G12-B12&gt;0,"",G12-B12)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="6" t="n">
         <f aca="false">IF(H12-C12&gt;0,"",H12-C12)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="6" t="n">
         <f aca="false">IF(I12-D12&gt;0,"",I12-D12)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="6" t="n">
         <f aca="false">IF(J12-E12&gt;0,"",J12-E12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">K12-F12</f>
         <v>0</v>
       </c>
     </row>
@@ -3478,36 +3824,43 @@
       <c r="F13" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5" t="n">
+      <c r="G13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="6" t="n">
         <f aca="false">IF(G13-B13&gt;0,"",G13-B13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="6" t="n">
         <f aca="false">IF(H13-C13&gt;0,"",H13-C13)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="O13" s="6" t="n">
         <f aca="false">IF(I13-D13&gt;0,"",I13-D13)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="6" t="n">
         <f aca="false">IF(J13-E13&gt;0,"",J13-E13)</f>
         <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">K13-F13</f>
+        <v>-33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,36 +3882,43 @@
       <c r="F14" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="n">
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="M14" s="5" t="str">
+      <c r="L14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="6" t="str">
         <f aca="false">IF(G14-B14&gt;0,"",G14-B14)</f>
         <v/>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="6" t="n">
         <f aca="false">IF(H14-C14&gt;0,"",H14-C14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="5" t="str">
+      <c r="O14" s="6" t="str">
         <f aca="false">IF(I14-D14&gt;0,"",I14-D14)</f>
         <v/>
       </c>
-      <c r="P14" s="5" t="str">
+      <c r="P14" s="6" t="str">
         <f aca="false">IF(J14-E14&gt;0,"",J14-E14)</f>
         <v/>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">K14-F14</f>
+        <v>-104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,36 +3940,43 @@
       <c r="F15" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <v>0.968</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="5" t="n">
         <v>0.968</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3" t="n">
         <v>0.968</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="3" t="n">
         <v>0.968</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="M15" s="5" t="str">
+      <c r="L15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="6" t="str">
         <f aca="false">IF(G15-B15&gt;0,"",G15-B15)</f>
         <v/>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="6" t="n">
         <f aca="false">IF(H15-C15&gt;0,"",H15-C15)</f>
         <v>-0.003</v>
       </c>
-      <c r="O15" s="5" t="str">
+      <c r="O15" s="6" t="str">
         <f aca="false">IF(I15-D15&gt;0,"",I15-D15)</f>
         <v/>
       </c>
-      <c r="P15" s="5" t="str">
+      <c r="P15" s="6" t="str">
         <f aca="false">IF(J15-E15&gt;0,"",J15-E15)</f>
         <v/>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">K15-F15</f>
+        <v>-40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,36 +3998,43 @@
       <c r="F16" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="str">
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="6" t="str">
         <f aca="false">IF(G16-B16&gt;0,"",G16-B16)</f>
         <v/>
       </c>
-      <c r="N16" s="5" t="str">
+      <c r="N16" s="6" t="str">
         <f aca="false">IF(H16-C16&gt;0,"",H16-C16)</f>
         <v/>
       </c>
-      <c r="O16" s="5" t="str">
+      <c r="O16" s="6" t="str">
         <f aca="false">IF(I16-D16&gt;0,"",I16-D16)</f>
         <v/>
       </c>
-      <c r="P16" s="5" t="str">
+      <c r="P16" s="6" t="str">
         <f aca="false">IF(J16-E16&gt;0,"",J16-E16)</f>
         <v/>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">K16-F16</f>
+        <v>-196</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,36 +4056,43 @@
       <c r="F17" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>0.988</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>0.988</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="3" t="n">
         <v>0.994</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="L17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="6" t="n">
         <f aca="false">IF(G17-B17&gt;0,"",G17-B17)</f>
         <v>-0.005</v>
       </c>
-      <c r="N17" s="5" t="str">
+      <c r="N17" s="6" t="str">
         <f aca="false">IF(H17-C17&gt;0,"",H17-C17)</f>
         <v/>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="O17" s="6" t="n">
         <f aca="false">IF(I17-D17&gt;0,"",I17-D17)</f>
         <v>-0.005</v>
       </c>
-      <c r="P17" s="5" t="str">
+      <c r="P17" s="6" t="str">
         <f aca="false">IF(J17-E17&gt;0,"",J17-E17)</f>
         <v/>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">K17-F17</f>
+        <v>-62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,41 +4114,92 @@
       <c r="F18" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="n">
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
         <v>0.955</v>
       </c>
-      <c r="I18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4" t="n">
+      <c r="I18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>0.977</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="M18" s="5" t="str">
+      <c r="L18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="6" t="str">
         <f aca="false">IF(G18-B18&gt;0,"",G18-B18)</f>
         <v/>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="6" t="n">
         <f aca="false">IF(H18-C18&gt;0,"",H18-C18)</f>
         <v>-0.026</v>
       </c>
-      <c r="O18" s="5" t="str">
+      <c r="O18" s="6" t="str">
         <f aca="false">IF(I18-D18&gt;0,"",I18-D18)</f>
         <v/>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="6" t="n">
         <f aca="false">IF(J18-E18&gt;0,"",J18-E18)</f>
         <v>-0.00600000000000001</v>
       </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">K18-F18</f>
+        <v>-248</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">SUM(B21:D21)</f>
+        <v>17</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <f aca="false">B21/$A$21</f>
+        <v>0.411764705882353</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">C21/$A$21</f>
+        <v>0.529411764705882</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">D21/$A$21</f>
+        <v>0.0588235294117647</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q18"/>
   <conditionalFormatting sqref="M2:P18">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>-5%</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3778,5 +4210,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>